--- a/others/Presupuesto.xlsx
+++ b/others/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kera\git\gaming-pc-website\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37676F5A-1D02-4318-BCD3-6D0D784C0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC3BA7F-8690-4E1E-AEE4-62778707A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -658,7 +656,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +664,7 @@
     <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
@@ -819,11 +817,11 @@
         <v>1099</v>
       </c>
       <c r="C11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>1099</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -998,7 +996,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="3">
         <f>SUM(D3:D22)</f>
-        <v>7851.3899999999976</v>
+        <v>8950.3899999999976</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1011,7 +1009,7 @@
       </c>
       <c r="D24" s="3">
         <f>D23*0.21</f>
-        <v>1648.7918999999995</v>
+        <v>1879.5818999999995</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1021,7 +1019,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="3">
         <f>SUM(D23:D24)</f>
-        <v>9500.1818999999978</v>
+        <v>10829.971899999997</v>
       </c>
     </row>
   </sheetData>
@@ -1031,5 +1029,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/others/Presupuesto.xlsx
+++ b/others/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kera\git\gaming-pc-website\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC3BA7F-8690-4E1E-AEE4-62778707A73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6A820-81E5-424D-B9E1-9BCDCD0B27C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Porsupuesto, el presupuesto</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>IVA %</t>
+  </si>
+  <si>
+    <t>2120,72€</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
     <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -675,7 +678,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -689,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -704,22 +707,22 @@
         <v>499.95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="18">
-        <v>1999.95</v>
+        <v>2120.7199999999998</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
       </c>
       <c r="D4" s="18">
         <f t="shared" ref="D4:D22" si="0">C4*B4</f>
-        <v>1999.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>2120.7199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -734,7 +737,7 @@
         <v>499.99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -749,7 +752,7 @@
         <v>456.42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -764,7 +767,7 @@
         <v>1523.96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -778,8 +781,11 @@
         <f t="shared" si="0"/>
         <v>380.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -794,7 +800,7 @@
         <v>144.94999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -809,7 +815,7 @@
         <v>218.94</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -824,7 +830,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -839,7 +845,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -854,7 +860,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -869,7 +875,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -884,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="3">
         <f>SUM(D3:D22)</f>
-        <v>8950.3899999999976</v>
+        <v>9071.159999999998</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1009,7 +1015,7 @@
       </c>
       <c r="D24" s="3">
         <f>D23*0.21</f>
-        <v>1879.5818999999995</v>
+        <v>1904.9435999999996</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1019,7 +1025,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="3">
         <f>SUM(D23:D24)</f>
-        <v>10829.971899999997</v>
+        <v>10976.103599999999</v>
       </c>
     </row>
   </sheetData>

--- a/others/Presupuesto.xlsx
+++ b/others/Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kera\git\gaming-pc-website\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6A820-81E5-424D-B9E1-9BCDCD0B27C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D6353A-35FF-456C-BF67-C7D51345AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Porsupuesto, el presupuesto</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>IVA %</t>
-  </si>
-  <si>
-    <t>2120,72€</t>
   </si>
 </sst>
 </file>
@@ -656,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +667,7 @@
     <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -678,7 +675,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
@@ -692,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -707,7 +704,7 @@
         <v>499.95</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -722,7 +719,7 @@
         <v>2120.7199999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -737,7 +734,7 @@
         <v>499.99</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
@@ -752,7 +749,7 @@
         <v>456.42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -767,7 +764,7 @@
         <v>1523.96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -781,11 +778,8 @@
         <f t="shared" si="0"/>
         <v>380.99</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -800,7 +794,7 @@
         <v>144.94999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -815,7 +809,7 @@
         <v>218.94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -830,7 +824,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -845,7 +839,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -860,7 +854,7 @@
         <v>51.99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -875,7 +869,7 @@
         <v>47.99</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -890,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
